--- a/Risikoregister.xlsx
+++ b/Risikoregister.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GourmetGuide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/svenschoberschule/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CE2246-7E84-4E05-B4A6-4AD667FD9318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11778AFC-D982-4642-927E-25B8367162A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{962F5EA2-457F-4DB1-BBA0-B266D560A518}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="13900" xr2:uid="{962F5EA2-457F-4DB1-BBA0-B266D560A518}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Nr.</t>
   </si>
@@ -84,7 +84,61 @@
     <t>Ausfall des Hostservers</t>
   </si>
   <si>
-    <t>Hosten auf einem Server</t>
+    <t>Chance</t>
+  </si>
+  <si>
+    <t>Webhosting vereinfacht Nutzung durch Enduser</t>
+  </si>
+  <si>
+    <t>Zuviele Bugs im Abschluss Test</t>
+  </si>
+  <si>
+    <t>Reduzierung</t>
+  </si>
+  <si>
+    <t>Kleinere Bugs werden nicht gefunden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akzeptanz aufgrund der Geringen auswirkung </t>
+  </si>
+  <si>
+    <t>Größere Bugs werden nicht gefunden</t>
+  </si>
+  <si>
+    <t>Ergreifen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergreifen der Chance aufgrund der großen Eintrittswahrscheinlichkeit und prositiver auswirkung </t>
+  </si>
+  <si>
+    <t>Zeitmanegment (verkalkuliert, Zeitmangel)</t>
+  </si>
+  <si>
+    <t>Vermeidung</t>
+  </si>
+  <si>
+    <t>Durch regelmäßige Aktualisierung des Zeitplans soll eine verkalkulierung am ende Vermieden werden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Häufiges Testen um führ Große Fehler zu finden und zu entfernen um so die Eintrittswahrscheinlichkeit zu Reduzieren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durch häufigere Test um die Bugs früher finden und die Eintrittswahrscheinlichkeit zu  Reduzieren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hohe produktivität durch Zeitmanagment </t>
+  </si>
+  <si>
+    <t>Steigern</t>
+  </si>
+  <si>
+    <t>Steigerung der Eintrittswahrscheinlichkeit durch regelmäßige Aktualisierung des Zeitplans</t>
+  </si>
+  <si>
+    <t>Eventualpan erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durch ein Backup server ist ein Eventualpan die Auswirkungs minderung soll erstellt worden </t>
   </si>
 </sst>
 </file>
@@ -179,9 +233,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,7 +273,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -325,7 +379,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -467,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,25 +531,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A237467-03C5-4842-A628-3868DA80565E}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.36328125" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" customWidth="1"/>
-    <col min="6" max="6" width="22.08984375" customWidth="1"/>
-    <col min="7" max="7" width="19.08984375" customWidth="1"/>
-    <col min="8" max="8" width="34.36328125" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" customWidth="1"/>
-    <col min="10" max="10" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="88.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -541,74 +595,182 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
     </row>
   </sheetData>

--- a/Risikoregister.xlsx
+++ b/Risikoregister.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/svenschoberschule/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GourmetGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11778AFC-D982-4642-927E-25B8367162A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712BB222-61F4-4816-B96B-7D5C89570E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="13900" xr2:uid="{962F5EA2-457F-4DB1-BBA0-B266D560A518}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{962F5EA2-457F-4DB1-BBA0-B266D560A518}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Nr.</t>
   </si>
@@ -81,39 +81,21 @@
     <t>Akzeptieren</t>
   </si>
   <si>
-    <t>Ausfall des Hostservers</t>
-  </si>
-  <si>
     <t>Chance</t>
   </si>
   <si>
-    <t>Webhosting vereinfacht Nutzung durch Enduser</t>
-  </si>
-  <si>
-    <t>Zuviele Bugs im Abschluss Test</t>
-  </si>
-  <si>
     <t>Reduzierung</t>
   </si>
   <si>
-    <t>Kleinere Bugs werden nicht gefunden</t>
-  </si>
-  <si>
     <t xml:space="preserve">Akzeptanz aufgrund der Geringen auswirkung </t>
   </si>
   <si>
-    <t>Größere Bugs werden nicht gefunden</t>
-  </si>
-  <si>
     <t>Ergreifen</t>
   </si>
   <si>
     <t xml:space="preserve">Ergreifen der Chance aufgrund der großen Eintrittswahrscheinlichkeit und prositiver auswirkung </t>
   </si>
   <si>
-    <t>Zeitmanegment (verkalkuliert, Zeitmangel)</t>
-  </si>
-  <si>
     <t>Vermeidung</t>
   </si>
   <si>
@@ -126,19 +108,40 @@
     <t xml:space="preserve">Durch häufigere Test um die Bugs früher finden und die Eintrittswahrscheinlichkeit zu  Reduzieren </t>
   </si>
   <si>
-    <t xml:space="preserve">Hohe produktivität durch Zeitmanagment </t>
-  </si>
-  <si>
     <t>Steigern</t>
   </si>
   <si>
     <t>Steigerung der Eintrittswahrscheinlichkeit durch regelmäßige Aktualisierung des Zeitplans</t>
   </si>
   <si>
-    <t>Eventualpan erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durch ein Backup server ist ein Eventualpan die Auswirkungs minderung soll erstellt worden </t>
+    <t>personell</t>
+  </si>
+  <si>
+    <t>Genaues Zeitmanagement erhöht die Produktivität</t>
+  </si>
+  <si>
+    <t>Bei den durchgeführten Tests werden große Bugs nicht gefunden</t>
+  </si>
+  <si>
+    <t>Bei den durchgeführten Tests werden kleine Bugs nicht gefunden</t>
+  </si>
+  <si>
+    <t>Im Abschlusstest werden zu viele Bugs gefunden und die Zeit ist nicht mehr ausreichend, um alle Bugs zu beheben</t>
+  </si>
+  <si>
+    <t>Das Hosten der Webseite auf einem Server ist für den Enduser einfacher als ein lokales Hosting</t>
+  </si>
+  <si>
+    <t>Reduzieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durch einen Backupserver werden die Auswirkungungen minimiert worden </t>
+  </si>
+  <si>
+    <t>Verkalkulationen im Zeitmanagement führen zu Zeitproblemen am Ende des Projekts</t>
+  </si>
+  <si>
+    <t>Der Hostserver fällt aus und der Service (die Webseite) ist nicht mehr erreichbar</t>
   </si>
 </sst>
 </file>
@@ -233,9 +236,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -273,7 +276,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -379,7 +382,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -521,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -531,25 +534,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A237467-03C5-4842-A628-3868DA80565E}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="88.5" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="95.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" customWidth="1"/>
+    <col min="8" max="8" width="99.08984375" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,12 +578,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4">
         <v>0.15</v>
@@ -595,19 +598,19 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4">
         <v>0.3</v>
@@ -615,22 +618,25 @@
       <c r="D3" s="4">
         <v>0.8</v>
       </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4">
         <v>0.9</v>
@@ -638,22 +644,25 @@
       <c r="D4" s="4">
         <v>0.5</v>
       </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4">
         <v>0.5</v>
@@ -661,22 +670,25 @@
       <c r="D5" s="4">
         <v>0.75</v>
       </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4">
         <v>0.8</v>
@@ -684,6 +696,9 @@
       <c r="D6" s="4">
         <v>0.1</v>
       </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
@@ -691,15 +706,15 @@
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4">
         <v>0.05</v>
@@ -707,22 +722,25 @@
       <c r="D7" s="4">
         <v>0.9</v>
       </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4">
         <v>0.2</v>
@@ -730,47 +748,50 @@
       <c r="D8" s="4">
         <v>0.5</v>
       </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
     </row>
   </sheetData>

--- a/Risikoregister.xlsx
+++ b/Risikoregister.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GourmetGuide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scsch\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712BB222-61F4-4816-B96B-7D5C89570E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D61A0D-164F-4B1D-98AF-B25C6E40C64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{962F5EA2-457F-4DB1-BBA0-B266D560A518}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{962F5EA2-457F-4DB1-BBA0-B266D560A518}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>Nr.</t>
   </si>
@@ -142,6 +153,30 @@
   </si>
   <si>
     <t>Der Hostserver fällt aus und der Service (die Webseite) ist nicht mehr erreichbar</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausfall eines Teammitgliedes </t>
+  </si>
+  <si>
+    <t>Akzeptieren/Übertragen</t>
+  </si>
+  <si>
+    <t>Bei Ausfall eines Teammitglied, muss dieses Akzeptiert werden und die wichtigsten Aufgaben auf andere Übertragen werden.</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>Mittelwert</t>
+  </si>
+  <si>
+    <t>Laufende Summe</t>
+  </si>
+  <si>
+    <t>Anzahl</t>
   </si>
 </sst>
 </file>
@@ -218,9 +253,1940 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="2400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Risikoprofil/-matrix</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>R1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="254000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1263951635695064E-2"/>
+                  <c:y val="-1.1643491372089127E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>R1</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9D64-452A-ADF5-4ED0805FD04D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1263951635694891E-2"/>
+                  <c:y val="-1.1643491372089127E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>R2</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-9D64-452A-ADF5-4ED0805FD04D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.12789702448752E-2"/>
+                  <c:y val="-3.5284153310623624E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>R3</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-9D64-452A-ADF5-4ED0805FD04D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1263951635694891E-2"/>
+                  <c:y val="1.1997170566445151E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>R4</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-9D64-452A-ADF5-4ED0805FD04D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1278970244875116E-2"/>
+                  <c:y val="-3.5284153310623408E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>R5</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-9D64-452A-ADF5-4ED0805FD04D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1263951635694891E-2"/>
+                  <c:y val="-1.1643491372089127E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>R6</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-9D64-452A-ADF5-4ED0805FD04D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1263951635694891E-2"/>
+                  <c:y val="-1.1643491372089127E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>R7</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-9D64-452A-ADF5-4ED0805FD04D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1278970244875158E-2"/>
+                  <c:y val="-3.5284153310623408E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>R8</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-9D64-452A-ADF5-4ED0805FD04D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D64-452A-ADF5-4ED0805FD04D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="60881088"/>
+        <c:axId val="60880128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="60881088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="de-DE" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Auswirkung</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="de-DE" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60880128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="60880128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Eintritswarscheinlichkeit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60881088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="25000">
+              <a:schemeClr val="accent1"/>
+            </a:gs>
+            <a:gs pos="24000">
+              <a:srgbClr val="5A9086"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6"/>
+            </a:gs>
+            <a:gs pos="75000">
+              <a:schemeClr val="accent1"/>
+            </a:gs>
+            <a:gs pos="76000">
+              <a:schemeClr val="accent2"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent2"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="18900000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276639</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5651638</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>109744</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B297EBF-DB52-3BD0-BA67-AFEC85C15692}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.68285</cdr:x>
+      <cdr:y>0.12046</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94943</cdr:x>
+      <cdr:y>0.1698</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Textfeld 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3393AF-B0C1-4BDC-9ACF-47775F1845C0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3670301" y="647148"/>
+          <a:ext cx="1432891" cy="265043"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Eskalationsbereich</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.15122</cdr:x>
+      <cdr:y>0.82506</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.4178</cdr:x>
+      <cdr:y>0.8744</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Textfeld 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15F6D4E-AEE3-10BF-EF7B-CF714F03ED87}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="812800" y="4432300"/>
+          <a:ext cx="1432891" cy="265043"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Risikotoleranzbereich</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.39315</cdr:x>
+      <cdr:y>0.45041</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.71151</cdr:x>
+      <cdr:y>0.49974</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Textfeld 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C82E72-9C8F-4FA5-B7FD-FB455A24FD34}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2113170" y="2419626"/>
+          <a:ext cx="1711187" cy="265043"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Managmentbereich</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{261F676F-334D-4AB9-B400-0DF06AB32BB9}" name="Tabelle1" displayName="Tabelle1" ref="A1:H8" totalsRowShown="0">
-  <autoFilter ref="A1:H8" xr:uid="{261F676F-334D-4AB9-B400-0DF06AB32BB9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{261F676F-334D-4AB9-B400-0DF06AB32BB9}" name="Tabelle1" displayName="Tabelle1" ref="A1:H9" totalsRowShown="0">
+  <autoFilter ref="A1:H9" xr:uid="{261F676F-334D-4AB9-B400-0DF06AB32BB9}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{CA95BA66-DD45-4B97-8D7E-DE788B4D1041}" name="Nr." dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00553A90-DC2C-4E81-A851-96058E33DF81}" name="Risikobeschreibung" dataDxfId="0"/>
@@ -236,9 +2202,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -276,7 +2242,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -382,7 +2348,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -524,7 +2490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -534,25 +2500,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A237467-03C5-4842-A628-3868DA80565E}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="95.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.36328125" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" customWidth="1"/>
-    <col min="8" max="8" width="99.08984375" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="95.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="99.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +2544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -605,7 +2571,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -631,7 +2597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -657,7 +2623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -683,7 +2649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -709,7 +2675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -735,7 +2701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -761,44 +2727,68 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>